--- a/ExcelTemplate/贷款映射模板.xlsx
+++ b/ExcelTemplate/贷款映射模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzwy23/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzwy23/Desktop/workspace/JavaProject/autoetl/ExcelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="配置页面" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="171">
   <si>
     <t>注释</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>ORG_PAYMENT_AMT</t>
-  </si>
-  <si>
-    <t>dp_td_acct_inf</t>
   </si>
   <si>
     <t>t.acct_no</t>
@@ -551,9 +548,6 @@
     <t>填写币种编码</t>
   </si>
   <si>
-    <t>如果业务方案有特殊要求，在金融工具表中添加了维度字段（tp_coa_id，wave_id），则请根据业务特色，处理相应的字段，维度字段，只会用来计算调节项目，或者用来前期的定价单元匹配，如果能够确定维度字段用于过滤器，则对于FTP而言，可以不填写。</t>
-  </si>
-  <si>
     <t>针对分期支付的业务，计算现金流时使用，如果定期存款不考虑利息现金流和整存零取与零存整取现金流，则填写0
 1.支付方式100，400，500，600，710，800时填写当期应还本金+利息
 2. 当付款方式时820时，填写当期应还本金
@@ -585,6 +579,9 @@
   </si>
   <si>
     <t>t.exec_rate</t>
+  </si>
+  <si>
+    <t>app_loan_info</t>
   </si>
 </sst>
 </file>
@@ -1005,66 +1002,193 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,127 +1198,83 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1215,89 +1295,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1595,1011 +1592,1009 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="169" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="169" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="15" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="15" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="15"/>
-    <col min="8" max="8" width="35.6640625" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="23" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="35.6640625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="51">
         <v>42736</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="25" t="s">
-        <v>134</v>
+      <c r="B11" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="37"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="70" t="s">
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="70" t="s">
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="5" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="72"/>
+    </row>
+    <row r="29" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="43"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+    </row>
+    <row r="41" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="42"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="45"/>
+    </row>
+    <row r="45" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="H45" s="62"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" s="77"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="43"/>
+    </row>
+    <row r="48" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="45"/>
+    </row>
+    <row r="49" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="46">
+        <v>1</v>
+      </c>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="45"/>
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" s="68"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="67">
+        <v>0</v>
+      </c>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="72"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="67">
+        <v>22222</v>
+      </c>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="79"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="67">
+        <v>11100</v>
+      </c>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="81"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="67">
         <v>160</v>
       </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="43"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="43"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="47"/>
-    </row>
-    <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="49"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="43"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="43"/>
-    </row>
-    <row r="39" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="43"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="43"/>
-    </row>
-    <row r="42" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="49"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45" s="52"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" s="53"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" s="43"/>
-    </row>
-    <row r="49" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="79">
-        <v>1</v>
-      </c>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" s="43"/>
-    </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="H50" s="45"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="70" t="s">
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="72"/>
+    </row>
+    <row r="56" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="63">
+        <v>210</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="H56" s="62"/>
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="70">
+        <v>0</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="62"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="44">
-        <v>0</v>
-      </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="44">
-        <v>22222</v>
-      </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="H53" s="55"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="44">
-        <v>11100</v>
-      </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="57"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="44">
-        <v>160</v>
-      </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="58">
-        <v>210</v>
-      </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="H56" s="52"/>
-    </row>
-    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="10">
-        <v>0</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="H57" s="52"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="62"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="65"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="66"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
@@ -2619,6 +2614,7 @@
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C42:F42"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="G55:H55"/>
@@ -2662,7 +2658,6 @@
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C42:F42"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>

--- a/ExcelTemplate/贷款映射模板.xlsx
+++ b/ExcelTemplate/贷款映射模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="配置页面" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,42 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">参数格式：arg1 type, arg2 type
 如：as_of_date date，ret_msg varcahr2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>可以更具具体的子表需求，自行扩展子表行数，复制子表这一行即可添加更多的子表</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">参数定义列表，格式是：
+argName dataType :=  value;
+argName dataType := value2;
+例如：
+version varchar2(10) := 'v1.0';
 </t>
         </r>
       </text>
@@ -51,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="176">
   <si>
     <t>注释</t>
   </si>
@@ -583,12 +616,27 @@
   <si>
     <t>app_loan_info</t>
   </si>
+  <si>
+    <t>程序头部</t>
+  </si>
+  <si>
+    <t>程序尾部</t>
+  </si>
+  <si>
+    <t>execute immediate 'truncate table atomic.fsi_d_load_contracts';</t>
+  </si>
+  <si>
+    <t>自定义变量</t>
+  </si>
+  <si>
+    <t>imd varchar2(100) := '123'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,9 +731,17 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,8 +774,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -967,6 +1029,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -988,7 +1063,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1023,173 +1098,177 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="21" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1198,14 +1277,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1295,6 +1366,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1590,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="169" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,59 +1691,59 @@
     <col min="9" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="52"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
@@ -1669,96 +1752,96 @@
       <c r="B5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54"/>
       <c r="B6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54"/>
       <c r="B7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="52">
         <v>42736</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54"/>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="B9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55"/>
       <c r="B10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="7" t="s">
         <v>133</v>
       </c>
@@ -1785,7 +1868,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="1"/>
@@ -1800,877 +1883,902 @@
       <c r="G13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C19" s="58" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="58"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C22" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="43" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C23" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="43" t="s">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C24" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="43" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C25" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="43" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C26" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="33" t="s">
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C27" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="44" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="45"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C28" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="67" t="s">
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="68"/>
-    </row>
-    <row r="27" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="H28" s="66"/>
+    </row>
+    <row r="29" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C29" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="44" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="H27" s="45"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C30" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="72"/>
-    </row>
-    <row r="29" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="70"/>
+    </row>
+    <row r="31" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C31" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="44" t="s">
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C32" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="34" t="s">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="35"/>
-    </row>
-    <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C33" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="41" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="42"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C34" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-    </row>
-    <row r="33" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C35" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="44" t="s">
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="45"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C36" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="34" t="s">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="H34" s="35"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C37" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C38" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="43" t="s">
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="43"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C39" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-    </row>
-    <row r="38" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C40" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="44" t="s">
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="H40" s="48"/>
+    </row>
+    <row r="41" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C41" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="44" t="s">
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="H41" s="48"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C42" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-    </row>
-    <row r="41" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C43" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="44" t="s">
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="H41" s="45"/>
-    </row>
-    <row r="42" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="H43" s="48"/>
+    </row>
+    <row r="44" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C44" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="41" t="s">
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="H42" s="42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="H44" s="45"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B45" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C45" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-    </row>
-    <row r="44" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C46" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="44" t="s">
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="H44" s="45"/>
-    </row>
-    <row r="45" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="H46" s="48"/>
+    </row>
+    <row r="47" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="73" t="s">
+      <c r="C47" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="44" t="s">
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H45" s="62"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="H47" s="60"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C48" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="77" t="s">
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="H46" s="77"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="H48" s="75"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B49" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C49" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="43" t="s">
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="H47" s="43"/>
-    </row>
-    <row r="48" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C50" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="44" t="s">
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="45"/>
-    </row>
-    <row r="49" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+      <c r="H50" s="48"/>
+    </row>
+    <row r="51" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C51" s="49">
         <v>1</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="44" t="s">
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="H49" s="45"/>
-    </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="H51" s="48"/>
+    </row>
+    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C52" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="67" t="s">
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="H50" s="68"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="H52" s="66"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C53" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="67">
+      <c r="C54" s="65">
         <v>0</v>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="70" t="s">
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="72"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="H54" s="70"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B55" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="67">
+      <c r="C55" s="65">
         <v>22222</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="78" t="s">
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="H53" s="79"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="H55" s="77"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="67">
+      <c r="C56" s="65">
         <v>11100</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="81"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="79"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="67">
+      <c r="C57" s="65">
         <v>160</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="70" t="s">
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="H55" s="72"/>
-    </row>
-    <row r="56" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="H57" s="70"/>
+    </row>
+    <row r="58" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B58" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C58" s="61">
         <v>210</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="44" t="s">
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="H56" s="62"/>
-    </row>
-    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+      <c r="H58" s="60"/>
+    </row>
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B59" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="70">
+      <c r="C59" s="68">
         <v>0</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="63" t="s">
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="H57" s="62"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="25"/>
-    </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="H59" s="60"/>
+    </row>
+    <row r="60" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="24"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="99">
-    <mergeCell ref="G53:H54"/>
+  <mergeCells count="102">
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G55:H56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C33:F33"/>
     <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C46:F46"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C40:F40"/>
     <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G38:H38"/>
     <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C54:F54"/>
     <mergeCell ref="C55:F55"/>
     <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -2682,22 +2790,30 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:H59"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:H62"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12 F13">

--- a/ExcelTemplate/贷款映射模板.xlsx
+++ b/ExcelTemplate/贷款映射模板.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="配置页面" sheetId="1" r:id="rId1"/>
+    <sheet name="配置信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="185">
   <si>
     <t>注释</t>
   </si>
@@ -599,9 +599,6 @@
     <t>ETL异常处理</t>
   </si>
   <si>
-    <t>p_as_of_date date, ret_msg varchar2</t>
-  </si>
-  <si>
     <t>700</t>
   </si>
   <si>
@@ -630,6 +627,40 @@
   </si>
   <si>
     <t>imd varchar2(100) := '123'</t>
+  </si>
+  <si>
+    <t>dim_config_filter</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>inner join</t>
+  </si>
+  <si>
+    <t>dim_org_info</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t.org_unit_id = t2.org_unit_id and t.as_of_date = t2.as_of_date</t>
+  </si>
+  <si>
+    <t>substr(t.gl_account_id,1,length(t1.item_id)) = t1.item_id 
+ and t.as_of_date = t1.as_of_date</t>
+  </si>
+  <si>
+    <t>p_as_of_date in date, 
+ret_flag out varchar2, 
+ret_msg out varchar2</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>测试模板央视，
+测试换行</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1074,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1062,8 +1093,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1071,10 +1106,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1132,24 +1163,186 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1184,28 +1377,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1232,26 +1409,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1261,126 +1418,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="22">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent3" xfId="12" builtinId="37"/>
     <cellStyle name="Accent5" xfId="13" builtinId="45"/>
@@ -1391,6 +1430,8 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1398,6 +1439,8 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1675,1121 +1718,1059 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="169" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="4"/>
-    <col min="8" max="8" width="35.6640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="23" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="61.5" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+    </row>
+    <row r="3" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="52">
-        <v>42736</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
+      <c r="C7" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+    </row>
+    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="60"/>
+      <c r="B10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="7" t="s">
+      <c r="B11" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="6" t="s">
         <v>133</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="57"/>
+    </row>
+    <row r="17" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="72"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="37"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="37"/>
+    </row>
+    <row r="41" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="37"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="37"/>
+    </row>
+    <row r="44" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="40"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+    </row>
+    <row r="46" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H46" s="37"/>
+    </row>
+    <row r="47" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="38"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="81">
+        <v>1</v>
+      </c>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" s="37"/>
+    </row>
+    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" s="31"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="29">
+        <v>0</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="29">
+        <v>22222</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" s="26"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="29">
+        <v>11100</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="29">
+        <v>160</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="20">
+        <v>210</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="22">
+        <v>0</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="58"/>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="31"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="48"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="66"/>
-    </row>
-    <row r="29" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="48"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="70"/>
-    </row>
-    <row r="31" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="48"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" s="45"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" s="48"/>
-    </row>
-    <row r="41" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="H41" s="48"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-    </row>
-    <row r="43" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="48"/>
-    </row>
-    <row r="44" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="H44" s="45"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-    </row>
-    <row r="46" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="H46" s="48"/>
-    </row>
-    <row r="47" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="H47" s="60"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="H48" s="75"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="H49" s="46"/>
-    </row>
-    <row r="50" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="48"/>
-    </row>
-    <row r="51" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="49">
-        <v>1</v>
-      </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="H51" s="48"/>
-    </row>
-    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="H52" s="66"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="65">
-        <v>0</v>
-      </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="H54" s="70"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="65">
-        <v>22222</v>
-      </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="H55" s="77"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="65">
-        <v>11100</v>
-      </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="79"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="65">
-        <v>160</v>
-      </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="H57" s="70"/>
-    </row>
-    <row r="58" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="61">
-        <v>210</v>
-      </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="H58" s="60"/>
-    </row>
-    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="68">
-        <v>0</v>
-      </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="H59" s="60"/>
-    </row>
-    <row r="60" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="57"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="68"/>
     </row>
     <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="71"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="102">
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G55:H56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B60:H60"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B15:H15"/>
@@ -2814,6 +2795,84 @@
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G55:H56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12 F13">
